--- a/app/cache/qrcode.xlsx
+++ b/app/cache/qrcode.xlsx
@@ -8,13 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="1" r:id="rId1"/>
+    <sheet name="B1" sheetId="2" r:id="rId2"/>
+    <sheet name="C1" sheetId="3" r:id="rId3"/>
+    <sheet name="D1" sheetId="4" r:id="rId4"/>
+    <sheet name="E1" sheetId="5" r:id="rId5"/>
+    <sheet name="F1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>桌号</t>
   </si>
@@ -37,10 +42,109 @@
     <t>A1_5</t>
   </si>
   <si>
-    <t>A1_6</t>
-  </si>
-  <si>
-    <t>A1_7</t>
+    <t>B1_1</t>
+  </si>
+  <si>
+    <t>B1_2</t>
+  </si>
+  <si>
+    <t>B1_3</t>
+  </si>
+  <si>
+    <t>B1_4</t>
+  </si>
+  <si>
+    <t>B1_5</t>
+  </si>
+  <si>
+    <t>B1_6</t>
+  </si>
+  <si>
+    <t>B1_7</t>
+  </si>
+  <si>
+    <t>B1_8</t>
+  </si>
+  <si>
+    <t>B1_9</t>
+  </si>
+  <si>
+    <t>B1_10</t>
+  </si>
+  <si>
+    <t>C1_1</t>
+  </si>
+  <si>
+    <t>C1_2</t>
+  </si>
+  <si>
+    <t>C1_3</t>
+  </si>
+  <si>
+    <t>C1_4</t>
+  </si>
+  <si>
+    <t>C1_5</t>
+  </si>
+  <si>
+    <t>D1_1</t>
+  </si>
+  <si>
+    <t>D1_2</t>
+  </si>
+  <si>
+    <t>D1_3</t>
+  </si>
+  <si>
+    <t>D1_4</t>
+  </si>
+  <si>
+    <t>D1_5</t>
+  </si>
+  <si>
+    <t>E1_1</t>
+  </si>
+  <si>
+    <t>E1_2</t>
+  </si>
+  <si>
+    <t>E1_3</t>
+  </si>
+  <si>
+    <t>E1_4</t>
+  </si>
+  <si>
+    <t>E1_5</t>
+  </si>
+  <si>
+    <t>F1_1</t>
+  </si>
+  <si>
+    <t>F1_2</t>
+  </si>
+  <si>
+    <t>F1_3</t>
+  </si>
+  <si>
+    <t>F1_4</t>
+  </si>
+  <si>
+    <t>F1_5</t>
+  </si>
+  <si>
+    <t>F1_6</t>
+  </si>
+  <si>
+    <t>F1_7</t>
+  </si>
+  <si>
+    <t>F1_8</t>
+  </si>
+  <si>
+    <t>F1_9</t>
+  </si>
+  <si>
+    <t>F1_10</t>
   </si>
 </sst>
 </file>
@@ -279,6 +383,201 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="B1_1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="190500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="B1_2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="2476500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="B1_3.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="4762500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="B1_4.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="7048500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="B1_5.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="9334500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -294,7 +593,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="A1_6.png"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="B1_6.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -332,7 +631,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="A1_7.png"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="B1_7.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -346,6 +645,120 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2047875" y="13906500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="B1_8.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="16192500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="B1_9.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="18478500"/>
+          <a:ext cx="2333625" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="B1_10.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="20764500"/>
           <a:ext cx="2333625" cy="2333625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -643,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,18 +1098,304 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>